--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -1083,18 +1083,11 @@
     <t>wait(3);
 SetStartPage(http://127.0.0.1:8082/app/);</t>
   </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1509,18 +1502,18 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.25" thickBot="1">
@@ -1585,9 +1578,7 @@
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="270.75" thickBot="1">
@@ -1614,9 +1605,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="203.25" thickBot="1">
@@ -1643,9 +1632,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="248.25" thickBot="1">
@@ -1670,9 +1657,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="293.25" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
@@ -442,52 +442,551 @@
 };</t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0983
+};
+validate5
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0980_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0979
+};
+validate5
+{
+validate_Result=http://127.0.0.1:
+validate_Result=app/WebviewTest/Page1.html
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1004_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1003_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1000_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1000
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1002_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+TakeScreenshot(VT200_1002_before);
+ZoomPage(body_xpath);
+wait(2);
+TakeScreenshot(VT200-1002);
+validate5;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1002
+};
+validate4
+{
+validate_Result=1. enable_screen_zoom set value is 0
+validate_Result=2. WebView enableZoom value is false
+};
+validate5
+{
+validate_Screenshot=VT200_1002_before
+validate_Screenshot=VT200-1002
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0981
+};</t>
+  </si>
+  <si>
+    <t>Get enableCache as True</t>
+  </si>
+  <si>
+    <t>get webviewFramework</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0991_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0991
+};
+validate4
+{
+validate_SystemProperties=webviewFramework
+};</t>
+  </si>
+  <si>
+    <t>Do not set enableCache in Rhoconfig txt</t>
+  </si>
+  <si>
+    <t>Get enableCache as false</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0988_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0988
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0989_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0989
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0990_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=false
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate5
+{
+validate_Text_Exists=VT200-0978
+};
+validate6
+{
+validate_Result=http://127.0.0.1
+validate_Result=app/WebviewNew/Page4.html
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate5
+{
+validate_Screenshot=VT200_0987_before
+};
+validate6
+{
+validate_Text_Exists=VT200-0987
+};
+validate7
+{
+validate_Screenshot=VT200_0987_after
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};
+validate6
+{
+validate_Text_Exists=VT200-0986
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};</t>
+  </si>
+  <si>
+    <t>Change Start page</t>
+  </si>
+  <si>
+    <t>wait(3);
+SetStartPage(http://127.0.0.1:8082/app/);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(10);
+TakeNativeScreenshot(VT200_0987_before);
+validate5;
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0987_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+TakeNativeScreenshot(VT200_0987_after);
+validate7;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab4_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0978_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0979_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0981_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+CheckUITextContains(Hello);</t>
+  </si>
+  <si>
     <t xml:space="preserve">wait(3);
 validate1;
 link_Click(webview_test_link);
 validate2;
 SelectTestToRun(VT200_0976_string);
 ClickRunTest(runtest_top_xpath);
-validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0977_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate5;
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(4);
+CheckUITextContains(Google);
 </t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0983
-};
-validate5
-{
-validate_Result=true
-};</t>
   </si>
   <si>
     <t>wait(3);
@@ -498,319 +997,39 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(5);
+CheckUITextContains(Google);
+ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0983_string);
-ClickRunTest(runtest_top_xpath);
+SelectTestToRun(VT200_0986_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
 wait(3);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0980_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-validate5;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0979
-};
-validate5
-{
-validate_Result=http://127.0.0.1:
-validate_Result=app/WebviewTest/Page1.html
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1004_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1003_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1000_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1000
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1002_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-TakeScreenshot(VT200_1002_before);
-ZoomPage(body_xpath);
-wait(2);
-TakeScreenshot(VT200-1002);
-validate5;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1002
-};
-validate4
-{
-validate_Result=1. enable_screen_zoom set value is 0
-validate_Result=2. WebView enableZoom value is false
-};
-validate5
-{
-validate_Screenshot=VT200_1002_before
-validate_Screenshot=VT200-1002
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0981
-};</t>
-  </si>
-  <si>
-    <t>Get enableCache as True</t>
-  </si>
-  <si>
-    <t>get webviewFramework</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0991_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0991
-};
-validate4
-{
-validate_SystemProperties=webviewFramework
-};</t>
-  </si>
-  <si>
-    <t>Do not set enableCache in Rhoconfig txt</t>
-  </si>
-  <si>
-    <t>Get enableCache as false</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0988_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0988
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0989_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0989
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0990_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0990
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0990
-};
-validate4
-{
-validate_Result=false
-};</t>
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(4);
+CheckUITextContains(Page1);</t>
   </si>
   <si>
     <t>wait(3);
@@ -824,228 +1043,19 @@
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0979_string);
-ClickRunTest(runtest_top_xpath);
+SelectTestToRun(VT200_0983_string);
+ClickRunTest(runtest_top_xpath);
+wait(3);
 validate4;
 ClickRunTest(runtest_bottom_xpath);
-wait(3);
+wait(2);
 validate5;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab4_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0978_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate5
-{
-validate_Text_Exists=VT200-0978
-};
-validate6
-{
-validate_Result=http://127.0.0.1
-validate_Result=app/WebviewNew/Page4.html
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate5
-{
-validate_Screenshot=VT200_0987_before
-};
-validate6
-{
-validate_Text_Exists=VT200-0987
-};
-validate7
-{
-validate_Screenshot=VT200_0987_after
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(10);
-TakeNativeScreenshot(VT200_0987_before);
-validate5;
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0987_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-link_Click(VT200_0976_tab1_xpath);
-TakeNativeScreenshot(VT200_0987_after);
-validate7;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0981_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-CheckUITextContains(Hello);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(5);
-CheckUITextContains(Google);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0986_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Page1);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};
-validate6
-{
-validate_Text_Exists=VT200-0986
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};</t>
   </si>
   <si>
     <t xml:space="preserve">wait(3);
@@ -1054,34 +1064,24 @@
 validate2;
 SelectTestToRun(VT200_0976_string);
 ClickRunTest(runtest_top_xpath);
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
+validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Google);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0977_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate5;
 </t>
-  </si>
-  <si>
-    <t>Change Start page</t>
-  </si>
-  <si>
-    <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1566,13 +1566,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2" t="s">
@@ -1651,10 +1651,10 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1681,7 +1681,7 @@
         <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1782,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>39</v>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>40</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>42</v>
@@ -1913,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1940,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>35</v>
@@ -1994,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2021,10 +2021,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2048,10 +2048,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2075,10 +2075,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>49</v>
@@ -2123,14 +2123,14 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2148,14 +2148,14 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2173,14 +2173,14 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2198,14 +2198,14 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2223,14 +2223,14 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
@@ -854,7 +854,31 @@
   </si>
   <si>
     <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(10);
+TakeNativeScreenshot(VT200_0987_before);
+validate5;
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0987_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+TakeNativeScreenshot(VT200_0987_after);
+validate7;</t>
   </si>
   <si>
     <t>wait(3);
@@ -865,24 +889,21 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
+wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(10);
-TakeNativeScreenshot(VT200_0987_before);
-validate5;
+ClickNativeIcon(VT200_0976_tab4_xpath);
+wait(2);
 ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0987_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-TakeNativeScreenshot(VT200_0987_after);
-validate7;</t>
+SelectTestToRun(VT200_0978_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;</t>
   </si>
   <si>
     <t>wait(3);
@@ -896,13 +917,13 @@
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-ClickNativeIcon(VT200_0976_tab4_xpath);
+ClickNativeIcon(VT200_0976_tab1_xpath);
 wait(2);
 ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0978_string);
+SelectTestToRun(VT200_0979_string);
 ClickRunTest(runtest_top_xpath);
 validate4;
 ClickRunTest(runtest_bottom_xpath);
@@ -927,12 +948,41 @@
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0979_string);
+SelectTestToRun(VT200_0981_string);
 ClickRunTest(runtest_top_xpath);
 validate4;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
-validate5;</t>
+CheckUITextContains(Hello);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(4);
+CheckUITextContains(Google);
+</t>
   </si>
   <si>
     <t>wait(3);
@@ -943,21 +993,65 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
+wait(5);
+CheckUITextContains(Google);
 ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0981_string);
-ClickRunTest(runtest_top_xpath);
+SelectTestToRun(VT200_0986_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(4);
+CheckUITextContains(Page1);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0983_string);
+ClickRunTest(runtest_top_xpath);
+wait(3);
 validate4;
 ClickRunTest(runtest_bottom_xpath);
-wait(3);
-CheckUITextContains(Hello);</t>
+wait(2);
+validate5;</t>
   </si>
   <si>
     <t xml:space="preserve">wait(3);
@@ -966,104 +1060,6 @@
 validate2;
 SelectTestToRun(VT200_0976_string);
 ClickRunTest(runtest_top_xpath);
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Google);
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(5);
-CheckUITextContains(Google);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0986_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Page1);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0983_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
@@ -1082,6 +1078,18 @@
 wait(5);
 validate5;
 </t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
+ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
+ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1510,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1552,7 +1560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" thickBot="1">
+    <row r="2" spans="1:12" ht="281.25" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1572,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2" t="s">
@@ -1678,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>74</v>
@@ -1913,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>73</v>
@@ -1940,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>52</v>
@@ -1994,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>59</v>
@@ -2021,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>76</v>
@@ -2048,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>75</v>
@@ -2075,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>50</v>
@@ -2102,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>49</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
@@ -1083,11 +1083,7 @@
     <t>wait(3);
 PullConfigxml;
 ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
-ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
-ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
   </si>
@@ -1560,7 +1556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="281.25" thickBot="1">
+    <row r="2" spans="1:12" ht="217.5" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
@@ -333,46 +333,6 @@
 };</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};
-validate6
-{
-validate_Text_Exists=VT200-0986
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};</t>
-  </si>
-  <si>
     <t>Change Start page</t>
   </si>
   <si>
@@ -402,78 +362,6 @@
 ClickNativeIcon(VT200_0976_tab1_xpath);
 TakeNativeScreenshot(VT200_0987_after);
 validate7;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Google);
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(5);
-CheckUITextContains(Google);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0986_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Page1);</t>
   </si>
   <si>
     <t>wait(3);
@@ -604,6 +492,131 @@
 validate5;
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};
+validate5
+{
+validate_Screenshot=VT200_0985
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(4);
+SwitchApp(WEBVIEW);
+wait(2);
+TakeScreenshot(VT200_0985);
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};
+validate6
+{
+validate_Text_Exists=VT200-0986
+};
+validate5
+{
+validate_Screenshot=VT200_0986_before
+validate_Screenshot=VT200_0986_after
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(5);
+TakeScreenshot(VT200_0986_before);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+ScrollUp_Page(body_xpath);
+SelectTestToRun(VT200_0986_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(4);
+TakeScreenshot(VT200_0986_after);
+validate5;</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1037,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1088,13 +1101,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2" t="s">
@@ -1148,10 +1161,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1176,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1200,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>37</v>
@@ -1227,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>23</v>
@@ -1254,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
@@ -1263,9 +1276,9 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="304.5" thickBot="1">
+    <row r="9" spans="1:12" ht="327" thickBot="1">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1281,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1292,7 +1305,7 @@
     </row>
     <row r="10" spans="1:12" ht="409.6" thickBot="1">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1308,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1319,7 +1332,7 @@
     </row>
     <row r="11" spans="1:12" ht="270.75" thickBot="1">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1335,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>29</v>
@@ -1346,7 +1359,7 @@
     </row>
     <row r="12" spans="1:12" ht="270.75" thickBot="1">
       <c r="A12" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1362,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>28</v>
@@ -1373,7 +1386,7 @@
     </row>
     <row r="13" spans="1:12" ht="180.75" thickBot="1">
       <c r="A13" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1398,7 +1411,7 @@
     </row>
     <row r="14" spans="1:12" ht="180.75" thickBot="1">
       <c r="A14" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Webview_JS.xlsx
@@ -344,34 +344,6 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(10);
-TakeNativeScreenshot(VT200_0987_before);
-validate5;
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0987_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-TakeNativeScreenshot(VT200_0987_after);
-validate7;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
@@ -477,6 +449,159 @@
 PushConfigxml;</t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};
+validate5
+{
+validate_Screenshot=VT200_0985
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(4);
+SwitchApp(WEBVIEW);
+wait(2);
+TakeScreenshot(VT200_0985);
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};
+validate6
+{
+validate_Text_Exists=VT200-0986
+};
+validate5
+{
+validate_Screenshot=VT200_0986_before
+validate_Screenshot=VT200_0986_after
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(5);
+TakeScreenshot(VT200_0986_before);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+ScrollUp_Page(body_xpath);
+SelectTestToRun(VT200_0986_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(4);
+TakeScreenshot(VT200_0986_after);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(10);
+TakeScreenshot(VT200_0987_before);
+validate5;
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0987_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+TakeScreenshot(VT200_0987_after);
+validate7;</t>
+  </si>
+  <si>
     <t>wait(3);
 validate1;
 link_Click(webview_test_link);
@@ -487,136 +612,11 @@
 ClickRunTest(runtest_bottom_xpath);
 wait(2);
 validate4;
-TakeNativeScreenshot(VT200_0995);
+TakeScreenshot(VT200_0995);
 wait(2);
 validate5;
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};
-validate5
-{
-validate_Screenshot=VT200_0985
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(4);
-SwitchApp(WEBVIEW);
-wait(2);
-TakeScreenshot(VT200_0985);
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};
-validate6
-{
-validate_Text_Exists=VT200-0986
-};
-validate5
-{
-validate_Screenshot=VT200_0986_before
-validate_Screenshot=VT200_0986_after
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(5);
-TakeScreenshot(VT200_0986_before);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-ScrollUp_Page(body_xpath);
-SelectTestToRun(VT200_0986_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(4);
-TakeScreenshot(VT200_0986_after);
-validate5;</t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2" t="s">
@@ -1161,10 +1161,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1189,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>37</v>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>23</v>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
@@ -1294,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1321,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>29</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>28</v>
